--- a/db/listing.xlsx
+++ b/db/listing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Module</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>HS</t>
   </si>
 </sst>
 </file>
@@ -81,21 +90,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,14 +118,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,93 +436,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
